--- a/APR_3_defaultscripts/Apr3SHREVOKED.xlsx
+++ b/APR_3_defaultscripts/Apr3SHREVOKED.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1495" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1932" uniqueCount="789">
   <si>
     <t>cell_name</t>
   </si>
@@ -1327,6 +1327,1059 @@
   </si>
   <si>
     <t>180.6</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0000.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0001.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0002.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0003.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0004.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0005.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0006.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0007.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0008.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0009.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0010.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0014.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0018.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0020.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0021.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0024.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0025.abf</t>
+  </si>
+  <si>
+    <t>2005_01_21 c3_0026.abf</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>-35</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>77.5194</t>
+  </si>
+  <si>
+    <t>542.6357</t>
+  </si>
+  <si>
+    <t>1.6667</t>
+  </si>
+  <si>
+    <t>3.3333</t>
+  </si>
+  <si>
+    <t>45.0494</t>
+  </si>
+  <si>
+    <t>19.8605</t>
+  </si>
+  <si>
+    <t>9.688</t>
+  </si>
+  <si>
+    <t>30.0329</t>
+  </si>
+  <si>
+    <t>8.7192</t>
+  </si>
+  <si>
+    <t>8.2348</t>
+  </si>
+  <si>
+    <t>4.3596</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>139.2</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>110.3</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>121.7</t>
+  </si>
+  <si>
+    <t>122.6</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>110.8</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>92.5</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>83.3</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>45.3657</t>
+  </si>
+  <si>
+    <t>-22.983</t>
+  </si>
+  <si>
+    <t>-11.1109</t>
+  </si>
+  <si>
+    <t>-13.2254</t>
+  </si>
+  <si>
+    <t>-17.8861</t>
+  </si>
+  <si>
+    <t>-14.4403</t>
+  </si>
+  <si>
+    <t>-14.4214</t>
+  </si>
+  <si>
+    <t>-10.3131</t>
+  </si>
+  <si>
+    <t>-7.5171</t>
+  </si>
+  <si>
+    <t>-9.0263</t>
+  </si>
+  <si>
+    <t>-5.5486</t>
+  </si>
+  <si>
+    <t>18.4126</t>
+  </si>
+  <si>
+    <t>20.924</t>
+  </si>
+  <si>
+    <t>15.2467</t>
+  </si>
+  <si>
+    <t>34.5344</t>
+  </si>
+  <si>
+    <t>9.3773</t>
+  </si>
+  <si>
+    <t>15.9043</t>
+  </si>
+  <si>
+    <t>12.6018</t>
+  </si>
+  <si>
+    <t>3.9847</t>
+  </si>
+  <si>
+    <t>279.7248</t>
+  </si>
+  <si>
+    <t>39.6781</t>
+  </si>
+  <si>
+    <t>39.0641</t>
+  </si>
+  <si>
+    <t>54.0203</t>
+  </si>
+  <si>
+    <t>43.3377</t>
+  </si>
+  <si>
+    <t>42.425</t>
+  </si>
+  <si>
+    <t>37.2392</t>
+  </si>
+  <si>
+    <t>31.7446</t>
+  </si>
+  <si>
+    <t>38.4517</t>
+  </si>
+  <si>
+    <t>27.4633</t>
+  </si>
+  <si>
+    <t>40.5883</t>
+  </si>
+  <si>
+    <t>3.3569</t>
+  </si>
+  <si>
+    <t>60.73</t>
+  </si>
+  <si>
+    <t>19.2261</t>
+  </si>
+  <si>
+    <t>16.1742</t>
+  </si>
+  <si>
+    <t>22.2778</t>
+  </si>
+  <si>
+    <t>18.0054</t>
+  </si>
+  <si>
+    <t>-121.1045</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-48.7753</t>
+  </si>
+  <si>
+    <t>-47.2894</t>
+  </si>
+  <si>
+    <t>-44.0119</t>
+  </si>
+  <si>
+    <t>-46.0587</t>
+  </si>
+  <si>
+    <t>-45.1159</t>
+  </si>
+  <si>
+    <t>-46.9189</t>
+  </si>
+  <si>
+    <t>-47.8644</t>
+  </si>
+  <si>
+    <t>-47.6114</t>
+  </si>
+  <si>
+    <t>-48.8526</t>
+  </si>
+  <si>
+    <t>-90.0269</t>
+  </si>
+  <si>
+    <t>-85.7731</t>
+  </si>
+  <si>
+    <t>-64.9994</t>
+  </si>
+  <si>
+    <t>-151.6724</t>
+  </si>
+  <si>
+    <t>-93.0788</t>
+  </si>
+  <si>
+    <t>-83.313</t>
+  </si>
+  <si>
+    <t>-126.0374</t>
+  </si>
+  <si>
+    <t>-64.4299</t>
+  </si>
+  <si>
+    <t>-14.7018</t>
+  </si>
+  <si>
+    <t>-58.6652</t>
+  </si>
+  <si>
+    <t>-59.5993</t>
+  </si>
+  <si>
+    <t>-60.9822</t>
+  </si>
+  <si>
+    <t>-59.8885</t>
+  </si>
+  <si>
+    <t>-59.2319</t>
+  </si>
+  <si>
+    <t>-56.6213</t>
+  </si>
+  <si>
+    <t>-54.4656</t>
+  </si>
+  <si>
+    <t>-56.0273</t>
+  </si>
+  <si>
+    <t>-53.1806</t>
+  </si>
+  <si>
+    <t>-21.2603</t>
+  </si>
+  <si>
+    <t>-20.9039</t>
+  </si>
+  <si>
+    <t>3.9582</t>
+  </si>
+  <si>
+    <t>-62.2064</t>
+  </si>
+  <si>
+    <t>-55.3203</t>
+  </si>
+  <si>
+    <t>-31.7031</t>
+  </si>
+  <si>
+    <t>-38.6676</t>
+  </si>
+  <si>
+    <t>10.375</t>
+  </si>
+  <si>
+    <t>5.075</t>
+  </si>
+  <si>
+    <t>576.8</t>
+  </si>
+  <si>
+    <t>157.9</t>
+  </si>
+  <si>
+    <t>138.2</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>129.6</t>
+  </si>
+  <si>
+    <t>128.3</t>
+  </si>
+  <si>
+    <t>862.3</t>
+  </si>
+  <si>
+    <t>165.3</t>
+  </si>
+  <si>
+    <t>115.1</t>
+  </si>
+  <si>
+    <t>73.1</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>533.2</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>37.1607</t>
+  </si>
+  <si>
+    <t>256.2944</t>
+  </si>
+  <si>
+    <t>27.9572</t>
+  </si>
+  <si>
+    <t>25.5335</t>
+  </si>
+  <si>
+    <t>35.8293</t>
+  </si>
+  <si>
+    <t>28.5923</t>
+  </si>
+  <si>
+    <t>27.6987</t>
+  </si>
+  <si>
+    <t>26.6213</t>
+  </si>
+  <si>
+    <t>23.6174</t>
+  </si>
+  <si>
+    <t>28.2047</t>
+  </si>
+  <si>
+    <t>21.9146</t>
+  </si>
+  <si>
+    <t>-27.0586</t>
+  </si>
+  <si>
+    <t>-45.6045</t>
+  </si>
+  <si>
+    <t>-12.8294</t>
+  </si>
+  <si>
+    <t>-117.138</t>
+  </si>
+  <si>
+    <t>-83.7015</t>
+  </si>
+  <si>
+    <t>-33.8393</t>
+  </si>
+  <si>
+    <t>-87.8011</t>
+  </si>
+  <si>
+    <t>2.875</t>
+  </si>
+  <si>
+    <t>139.3</t>
+  </si>
+  <si>
+    <t>148.1</t>
+  </si>
+  <si>
+    <t>110.4</t>
+  </si>
+  <si>
+    <t>140.9</t>
+  </si>
+  <si>
+    <t>121.8</t>
+  </si>
+  <si>
+    <t>122.7</t>
+  </si>
+  <si>
+    <t>114.1</t>
+  </si>
+  <si>
+    <t>110.9</t>
+  </si>
+  <si>
+    <t>862.1</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>107.8</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>460.9</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>917.3</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>9.0343</t>
+  </si>
+  <si>
+    <t>-25.7435</t>
+  </si>
+  <si>
+    <t>-27.4123</t>
+  </si>
+  <si>
+    <t>-31.0896</t>
+  </si>
+  <si>
+    <t>-28.2579</t>
+  </si>
+  <si>
+    <t>-27.9561</t>
+  </si>
+  <si>
+    <t>-24.3888</t>
+  </si>
+  <si>
+    <t>-21.8764</t>
+  </si>
+  <si>
+    <t>-23.3097</t>
+  </si>
+  <si>
+    <t>-20.2044</t>
+  </si>
+  <si>
+    <t>-8.5954</t>
+  </si>
+  <si>
+    <t>-4.8079</t>
+  </si>
+  <si>
+    <t>-4.2532</t>
+  </si>
+  <si>
+    <t>-10.9673</t>
+  </si>
+  <si>
+    <t>-18.5464</t>
+  </si>
+  <si>
+    <t>-9.0896</t>
+  </si>
+  <si>
+    <t>-25.2095</t>
+  </si>
+  <si>
+    <t>-15.1866</t>
+  </si>
+  <si>
+    <t>-35.4985</t>
+  </si>
+  <si>
+    <t>-36.8701</t>
+  </si>
+  <si>
+    <t>-39.892</t>
+  </si>
+  <si>
+    <t>-37.4697</t>
+  </si>
+  <si>
+    <t>-36.9793</t>
+  </si>
+  <si>
+    <t>-33.7726</t>
+  </si>
+  <si>
+    <t>-31.4493</t>
+  </si>
+  <si>
+    <t>-32.832</t>
+  </si>
+  <si>
+    <t>-29.9749</t>
+  </si>
+  <si>
+    <t>-26.6008</t>
+  </si>
+  <si>
+    <t>-21.9626</t>
+  </si>
+  <si>
+    <t>-17.253</t>
+  </si>
+  <si>
+    <t>-41.3018</t>
+  </si>
+  <si>
+    <t>-37.1621</t>
+  </si>
+  <si>
+    <t>-25.7522</t>
+  </si>
+  <si>
+    <t>-50.417</t>
+  </si>
+  <si>
+    <t>-39.4075</t>
+  </si>
+  <si>
+    <t>-45.2536</t>
+  </si>
+  <si>
+    <t>-46.328</t>
+  </si>
+  <si>
+    <t>-48.6944</t>
+  </si>
+  <si>
+    <t>-46.6814</t>
+  </si>
+  <si>
+    <t>-46.0025</t>
+  </si>
+  <si>
+    <t>-43.1564</t>
+  </si>
+  <si>
+    <t>-41.0221</t>
+  </si>
+  <si>
+    <t>-42.3542</t>
+  </si>
+  <si>
+    <t>-39.7454</t>
+  </si>
+  <si>
+    <t>-44.6062</t>
+  </si>
+  <si>
+    <t>-39.1172</t>
+  </si>
+  <si>
+    <t>-30.2529</t>
+  </si>
+  <si>
+    <t>-71.6363</t>
+  </si>
+  <si>
+    <t>-55.7779</t>
+  </si>
+  <si>
+    <t>-42.4148</t>
+  </si>
+  <si>
+    <t>-75.6244</t>
+  </si>
+  <si>
+    <t>-63.6283</t>
+  </si>
+  <si>
+    <t>-55.0087</t>
+  </si>
+  <si>
+    <t>-55.7859</t>
+  </si>
+  <si>
+    <t>-57.4968</t>
+  </si>
+  <si>
+    <t>-55.8931</t>
+  </si>
+  <si>
+    <t>-55.0257</t>
+  </si>
+  <si>
+    <t>-52.5402</t>
+  </si>
+  <si>
+    <t>-50.595</t>
+  </si>
+  <si>
+    <t>-51.8765</t>
+  </si>
+  <si>
+    <t>-49.5159</t>
+  </si>
+  <si>
+    <t>-62.6116</t>
+  </si>
+  <si>
+    <t>-56.2718</t>
+  </si>
+  <si>
+    <t>-43.2528</t>
+  </si>
+  <si>
+    <t>-101.9708</t>
+  </si>
+  <si>
+    <t>-74.3936</t>
+  </si>
+  <si>
+    <t>-59.0774</t>
+  </si>
+  <si>
+    <t>-100.8319</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>180.56</t>
+  </si>
+  <si>
+    <t>148.9</t>
+  </si>
+  <si>
+    <t>405.34</t>
+  </si>
+  <si>
+    <t>152.12</t>
+  </si>
+  <si>
+    <t>152.08</t>
+  </si>
+  <si>
+    <t>120.4</t>
+  </si>
+  <si>
+    <t>157.62</t>
+  </si>
+  <si>
+    <t>139.88</t>
+  </si>
+  <si>
+    <t>104.18</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>7.68</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>29.12</t>
+  </si>
+  <si>
+    <t>42.46</t>
+  </si>
+  <si>
+    <t>46.76</t>
+  </si>
+  <si>
+    <t>9.92</t>
+  </si>
+  <si>
+    <t>182.52</t>
+  </si>
+  <si>
+    <t>150.76</t>
+  </si>
+  <si>
+    <t>484.4</t>
+  </si>
+  <si>
+    <t>153.94</t>
+  </si>
+  <si>
+    <t>154.04</t>
+  </si>
+  <si>
+    <t>122.28</t>
+  </si>
+  <si>
+    <t>159.38</t>
+  </si>
+  <si>
+    <t>141.64</t>
+  </si>
+  <si>
+    <t>117.5</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>32.9</t>
+  </si>
+  <si>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>16.18</t>
+  </si>
+  <si>
+    <t>17.98</t>
+  </si>
+  <si>
+    <t>171.8</t>
+  </si>
+  <si>
+    <t>9.83</t>
+  </si>
+  <si>
+    <t>181.56</t>
+  </si>
+  <si>
+    <t>149.84</t>
+  </si>
+  <si>
+    <t>483.68</t>
+  </si>
+  <si>
+    <t>153.06</t>
+  </si>
+  <si>
+    <t>121.32</t>
+  </si>
+  <si>
+    <t>158.58</t>
+  </si>
+  <si>
+    <t>140.84</t>
+  </si>
+  <si>
+    <t>114.18</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>32.88</t>
+  </si>
+  <si>
+    <t>6.58</t>
+  </si>
+  <si>
+    <t>13.68</t>
+  </si>
+  <si>
+    <t>35.26</t>
+  </si>
+  <si>
+    <t>17.96</t>
+  </si>
+  <si>
+    <t>164.22</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>379.04</t>
+  </si>
+  <si>
+    <t>226.94</t>
+  </si>
+  <si>
+    <t>481.42</t>
+  </si>
+  <si>
+    <t>81.34</t>
+  </si>
+  <si>
+    <t>80.52</t>
+  </si>
+  <si>
+    <t>64.94</t>
+  </si>
+  <si>
+    <t>59.36</t>
+  </si>
+  <si>
+    <t>65.08</t>
+  </si>
+  <si>
+    <t>59.3</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>30.36</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>116.88</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>159.48</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>440.66</t>
+  </si>
+  <si>
+    <t>402.68</t>
+  </si>
+  <si>
+    <t>462.62</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>408.3</t>
+  </si>
+  <si>
+    <t>416.8</t>
+  </si>
+  <si>
+    <t>440.14</t>
+  </si>
+  <si>
+    <t>21.02</t>
+  </si>
+  <si>
+    <t>23.32</t>
+  </si>
+  <si>
+    <t>6.24</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>9.93</t>
+  </si>
+  <si>
+    <t>2.205</t>
+  </si>
+  <si>
+    <t>-248.72</t>
+  </si>
+  <si>
+    <t>-242.42</t>
+  </si>
+  <si>
+    <t>466.42</t>
+  </si>
+  <si>
+    <t>138.42</t>
+  </si>
+  <si>
+    <t>-242.4</t>
+  </si>
+  <si>
+    <t>-283.92</t>
+  </si>
+  <si>
+    <t>-270.3</t>
+  </si>
+  <si>
+    <t>130.26</t>
+  </si>
+  <si>
+    <t>103.74</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>-81.68</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>169.18</t>
+  </si>
+  <si>
+    <t>106.02</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>-100.78</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +2431,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="true"/>
+    <col min="1" max="1" width="21.85546875" customWidth="true"/>
     <col min="2" max="2" width="19.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="18" customWidth="true"/>
@@ -1476,1280 +2529,1280 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>438</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>456</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>51</v>
+        <v>460</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>56</v>
+        <v>471</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>75</v>
+        <v>486</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>95</v>
+        <v>504</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>115</v>
+        <v>522</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>155</v>
+        <v>558</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>175</v>
+        <v>573</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>195</v>
+        <v>591</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>214</v>
+        <v>607</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>231</v>
+        <v>620</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>251</v>
+        <v>637</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>271</v>
+        <v>654</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>291</v>
+        <v>671</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>311</v>
+        <v>688</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>331</v>
+        <v>706</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>351</v>
+        <v>723</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>371</v>
+        <v>739</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>391</v>
+        <v>756</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>411</v>
+        <v>769</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>411</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>439</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>51</v>
+        <v>461</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>57</v>
+        <v>471</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>76</v>
+        <v>487</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>96</v>
+        <v>505</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>116</v>
+        <v>523</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>136</v>
+        <v>541</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>156</v>
+        <v>559</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>176</v>
+        <v>574</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>196</v>
+        <v>591</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>215</v>
+        <v>608</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>232</v>
+        <v>487</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>252</v>
+        <v>487</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>292</v>
+        <v>487</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>312</v>
+        <v>689</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>332</v>
+        <v>689</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>352</v>
+        <v>689</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>372</v>
+        <v>689</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>392</v>
+        <v>689</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>412</v>
+        <v>770</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>431</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>440</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>51</v>
+        <v>462</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>472</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>97</v>
+        <v>506</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>117</v>
+        <v>524</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>137</v>
+        <v>542</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>177</v>
+        <v>575</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>197</v>
+        <v>592</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>216</v>
+        <v>609</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>233</v>
+        <v>621</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>253</v>
+        <v>638</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>273</v>
+        <v>655</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>293</v>
+        <v>672</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>313</v>
+        <v>690</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>333</v>
+        <v>707</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>353</v>
+        <v>724</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>373</v>
+        <v>740</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>393</v>
+        <v>757</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>413</v>
+        <v>771</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>413</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>441</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>51</v>
+        <v>462</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>59</v>
+        <v>473</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>118</v>
+        <v>525</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>138</v>
+        <v>543</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>178</v>
+        <v>576</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>198</v>
+        <v>593</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>217</v>
+        <v>610</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>234</v>
+        <v>622</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>254</v>
+        <v>639</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>274</v>
+        <v>656</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>294</v>
+        <v>673</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>314</v>
+        <v>691</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>334</v>
+        <v>708</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>354</v>
+        <v>725</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>374</v>
+        <v>741</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>394</v>
+        <v>758</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>414</v>
+        <v>772</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>414</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>442</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>458</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>52</v>
+        <v>462</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>60</v>
+        <v>474</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>99</v>
+        <v>508</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>119</v>
+        <v>526</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>139</v>
+        <v>544</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>159</v>
+        <v>560</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>179</v>
+        <v>577</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>199</v>
+        <v>594</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>218</v>
+        <v>611</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>235</v>
+        <v>623</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>255</v>
+        <v>640</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>275</v>
+        <v>657</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>295</v>
+        <v>674</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>315</v>
+        <v>692</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>335</v>
+        <v>709</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>355</v>
+        <v>726</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>375</v>
+        <v>742</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>395</v>
+        <v>759</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>415</v>
+        <v>773</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>432</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>443</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>457</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
+        <v>462</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>80</v>
+        <v>491</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>100</v>
+        <v>509</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>120</v>
+        <v>527</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>140</v>
+        <v>545</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>160</v>
+        <v>561</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>180</v>
+        <v>578</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>200</v>
+        <v>595</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>219</v>
+        <v>612</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>236</v>
+        <v>624</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>256</v>
+        <v>641</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>276</v>
+        <v>658</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>296</v>
+        <v>675</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>316</v>
+        <v>693</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>336</v>
+        <v>710</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>356</v>
+        <v>727</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>376</v>
+        <v>743</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>396</v>
+        <v>760</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>416</v>
+        <v>774</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>416</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>444</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>457</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>462</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>62</v>
+        <v>475</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>101</v>
+        <v>510</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>121</v>
+        <v>528</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>141</v>
+        <v>546</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>181</v>
+        <v>579</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>220</v>
+        <v>613</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>237</v>
+        <v>625</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>257</v>
+        <v>642</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>277</v>
+        <v>659</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>297</v>
+        <v>676</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>317</v>
+        <v>694</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>337</v>
+        <v>711</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>357</v>
+        <v>168</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>377</v>
+        <v>744</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>397</v>
+        <v>761</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>417</v>
+        <v>775</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>417</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>445</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>52</v>
+        <v>462</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>63</v>
+        <v>476</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>102</v>
+        <v>511</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>122</v>
+        <v>529</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>142</v>
+        <v>547</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>162</v>
+        <v>562</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>182</v>
+        <v>580</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>202</v>
+        <v>596</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>221</v>
+        <v>614</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>238</v>
+        <v>626</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>258</v>
+        <v>643</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>278</v>
+        <v>660</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>298</v>
+        <v>677</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>318</v>
+        <v>695</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>338</v>
+        <v>712</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>358</v>
+        <v>728</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>378</v>
+        <v>745</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>398</v>
+        <v>762</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>418</v>
+        <v>776</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>433</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>446</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
+        <v>462</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>60</v>
+        <v>477</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>83</v>
+        <v>494</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>123</v>
+        <v>530</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>143</v>
+        <v>548</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>163</v>
+        <v>563</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>183</v>
+        <v>581</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>199</v>
+        <v>597</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>222</v>
+        <v>615</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>239</v>
+        <v>627</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>259</v>
+        <v>644</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>279</v>
+        <v>661</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>299</v>
+        <v>678</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>319</v>
+        <v>696</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>339</v>
+        <v>713</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>359</v>
+        <v>729</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>379</v>
+        <v>746</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>399</v>
+        <v>763</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>419</v>
+        <v>777</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>419</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>447</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>51</v>
+        <v>462</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>64</v>
+        <v>478</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>84</v>
+        <v>495</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>104</v>
+        <v>513</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>124</v>
+        <v>531</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>144</v>
+        <v>549</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>164</v>
+        <v>564</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>184</v>
+        <v>582</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>203</v>
+        <v>598</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>220</v>
+        <v>616</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>240</v>
+        <v>628</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>260</v>
+        <v>645</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>280</v>
+        <v>662</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>300</v>
+        <v>679</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>320</v>
+        <v>697</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>340</v>
+        <v>714</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>360</v>
+        <v>730</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>380</v>
+        <v>747</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>400</v>
+        <v>764</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>420</v>
+        <v>778</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>420</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>448</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>51</v>
+        <v>463</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>65</v>
+        <v>479</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>85</v>
+        <v>496</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>105</v>
+        <v>514</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>125</v>
+        <v>532</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>145</v>
+        <v>550</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>165</v>
+        <v>565</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>185</v>
+        <v>583</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>204</v>
+        <v>599</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>223</v>
+        <v>617</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>241</v>
+        <v>629</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>261</v>
+        <v>646</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>281</v>
+        <v>663</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>301</v>
+        <v>680</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>321</v>
+        <v>698</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>341</v>
+        <v>715</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>361</v>
+        <v>731</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>381</v>
+        <v>748</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>401</v>
+        <v>765</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>421</v>
+        <v>779</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>434</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>456</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>53</v>
+        <v>464</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>66</v>
+        <v>480</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>86</v>
+        <v>497</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>106</v>
+        <v>515</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>126</v>
+        <v>533</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>146</v>
+        <v>551</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>166</v>
+        <v>566</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>186</v>
+        <v>584</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>205</v>
+        <v>600</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>224</v>
+        <v>618</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>242</v>
+        <v>630</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>262</v>
+        <v>647</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>282</v>
+        <v>664</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>302</v>
+        <v>681</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>322</v>
+        <v>699</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>342</v>
+        <v>716</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>362</v>
+        <v>732</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>382</v>
+        <v>749</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>402</v>
+        <v>756</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>422</v>
+        <v>780</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>435</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>450</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>456</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>52</v>
+        <v>465</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>67</v>
+        <v>481</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>87</v>
+        <v>498</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>127</v>
+        <v>534</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>147</v>
+        <v>552</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>167</v>
+        <v>567</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>187</v>
+        <v>585</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>206</v>
+        <v>601</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>225</v>
+        <v>619</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>243</v>
+        <v>631</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>263</v>
+        <v>648</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>283</v>
+        <v>665</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>303</v>
+        <v>682</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>323</v>
+        <v>700</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>343</v>
+        <v>717</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>363</v>
+        <v>733</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>383</v>
+        <v>750</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>403</v>
+        <v>756</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>423</v>
+        <v>717</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>436</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>451</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>51</v>
+        <v>466</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>68</v>
+        <v>482</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>88</v>
+        <v>499</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>108</v>
+        <v>517</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>128</v>
+        <v>535</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>148</v>
+        <v>553</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>168</v>
+        <v>568</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>188</v>
+        <v>586</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>207</v>
+        <v>602</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>226</v>
+        <v>618</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>244</v>
+        <v>632</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>264</v>
+        <v>649</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>284</v>
+        <v>666</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>304</v>
+        <v>683</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>324</v>
+        <v>701</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>344</v>
+        <v>718</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>364</v>
+        <v>734</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>384</v>
+        <v>751</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>404</v>
+        <v>766</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>424</v>
+        <v>781</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>424</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>452</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>456</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>54</v>
+        <v>467</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>69</v>
+        <v>483</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>89</v>
+        <v>500</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>109</v>
+        <v>518</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>129</v>
+        <v>536</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>149</v>
+        <v>554</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>169</v>
+        <v>569</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>189</v>
+        <v>587</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>208</v>
+        <v>603</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>215</v>
+        <v>619</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>245</v>
+        <v>633</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>265</v>
+        <v>650</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>285</v>
+        <v>667</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>305</v>
+        <v>684</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>325</v>
+        <v>702</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>345</v>
+        <v>719</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>365</v>
+        <v>735</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>385</v>
+        <v>752</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>405</v>
+        <v>767</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>425</v>
+        <v>782</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>425</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>453</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>459</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>54</v>
+        <v>468</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>70</v>
+        <v>484</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>90</v>
+        <v>501</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>110</v>
+        <v>519</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>130</v>
+        <v>537</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>150</v>
+        <v>555</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>170</v>
+        <v>570</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>190</v>
+        <v>588</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>209</v>
+        <v>604</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>227</v>
+        <v>619</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>246</v>
+        <v>634</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>266</v>
+        <v>651</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>286</v>
+        <v>668</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>306</v>
+        <v>685</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>326</v>
+        <v>703</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>346</v>
+        <v>720</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>366</v>
+        <v>736</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>386</v>
+        <v>753</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>406</v>
+        <v>768</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>426</v>
+        <v>783</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>426</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>454</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>54</v>
+        <v>469</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>71</v>
+        <v>485</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>91</v>
+        <v>502</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>111</v>
+        <v>520</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>131</v>
+        <v>538</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>151</v>
+        <v>556</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>171</v>
+        <v>571</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>191</v>
+        <v>589</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>210</v>
+        <v>605</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>228</v>
+        <v>618</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>247</v>
+        <v>635</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>267</v>
+        <v>652</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>287</v>
+        <v>669</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>307</v>
+        <v>686</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>327</v>
+        <v>704</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>347</v>
+        <v>721</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>367</v>
+        <v>737</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>387</v>
+        <v>754</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>407</v>
+        <v>756</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>427</v>
+        <v>784</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>427</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>455</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>54</v>
+        <v>470</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>72</v>
+        <v>482</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>92</v>
+        <v>503</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>112</v>
+        <v>521</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>132</v>
+        <v>539</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>152</v>
+        <v>557</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>172</v>
+        <v>572</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>192</v>
+        <v>590</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>211</v>
+        <v>606</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>229</v>
+        <v>619</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>248</v>
+        <v>636</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>268</v>
+        <v>653</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>288</v>
+        <v>670</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>308</v>
+        <v>687</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>328</v>
+        <v>705</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>348</v>
+        <v>722</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>368</v>
+        <v>738</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>388</v>
+        <v>755</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>408</v>
+        <v>756</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>428</v>
+        <v>785</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>428</v>
+        <v>722</v>
       </c>
     </row>
     <row r="20">
